--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masaustu2\osman makale\rota_optimizasyonu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C62399-D779-42DB-9A56-095E8F808EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B8AFAF-3E33-4733-980F-53BBA38E9DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="1230" windowWidth="19035" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
   <si>
     <t>K1</t>
   </si>
@@ -481,21 +482,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -547,17 +548,17 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -612,17 +613,17 @@
       <c r="R2" s="3">
         <v>79.038058320391542</v>
       </c>
-      <c r="U2" s="1">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -677,19 +678,19 @@
       <c r="R3" s="3">
         <v>107.3094045510677</v>
       </c>
-      <c r="U3" s="2">
+      <c r="T3" s="2">
         <v>3</v>
       </c>
-      <c r="V3" s="3" cm="1">
-        <f t="array" ref="V3">INDEX($B$2:$R$18,U2,U3)</f>
+      <c r="U3" s="3" cm="1">
+        <f t="array" ref="U3">INDEX($B$2:$R$18,T2,T3)</f>
         <v>88.938009293324328</v>
       </c>
-      <c r="W3" s="3">
-        <f>V3+W2</f>
+      <c r="V3" s="3">
+        <f>U3+V2</f>
         <v>88.938009293324328</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -744,19 +745,19 @@
       <c r="R4" s="3">
         <v>100.18334971507289</v>
       </c>
-      <c r="U4">
+      <c r="T4">
         <v>13</v>
       </c>
-      <c r="V4" s="3" cm="1">
-        <f t="array" ref="V4">INDEX($B$2:$R$18,U3,U4)</f>
+      <c r="U4" s="3" cm="1">
+        <f t="array" ref="U4">INDEX($B$2:$R$18,T3,T4)</f>
         <v>10.49760224799414</v>
       </c>
-      <c r="W4" s="3">
-        <f t="shared" ref="W4:W18" si="0">V4+W3</f>
+      <c r="V4" s="3">
+        <f t="shared" ref="V4:V18" si="0">U4+V3</f>
         <v>99.435611541318465</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -811,19 +812,19 @@
       <c r="R5" s="3">
         <v>9.2661972053704051</v>
       </c>
-      <c r="U5">
+      <c r="T5">
         <v>11</v>
       </c>
-      <c r="V5" s="3" cm="1">
-        <f t="array" ref="V5">INDEX($B$2:$R$18,U4,U5)</f>
+      <c r="U5" s="3" cm="1">
+        <f t="array" ref="U5">INDEX($B$2:$R$18,T4,T5)</f>
         <v>48.523753075380327</v>
       </c>
-      <c r="W5" s="3">
+      <c r="V5" s="3">
         <f t="shared" si="0"/>
         <v>147.95936461669879</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -878,19 +879,19 @@
       <c r="R6" s="3">
         <v>103.94003120872171</v>
       </c>
-      <c r="U6">
+      <c r="T6">
         <v>17</v>
       </c>
-      <c r="V6" s="3" cm="1">
-        <f t="array" ref="V6">INDEX($B$2:$R$18,U5,U6)</f>
+      <c r="U6" s="3" cm="1">
+        <f t="array" ref="U6">INDEX($B$2:$R$18,T5,T6)</f>
         <v>61.346743461333631</v>
       </c>
-      <c r="W6" s="3">
+      <c r="V6" s="3">
         <f t="shared" si="0"/>
         <v>209.30610807803242</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -945,19 +946,19 @@
       <c r="R7" s="3">
         <v>31.554803121949909</v>
       </c>
-      <c r="U7">
+      <c r="T7">
         <v>4</v>
       </c>
-      <c r="V7" s="3" cm="1">
-        <f t="array" ref="V7">INDEX($B$2:$R$18,U6,U7)</f>
+      <c r="U7" s="3" cm="1">
+        <f t="array" ref="U7">INDEX($B$2:$R$18,T6,T7)</f>
         <v>9.2661972053704051</v>
       </c>
-      <c r="W7" s="3">
+      <c r="V7" s="3">
         <f t="shared" si="0"/>
         <v>218.57230528340284</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1012,19 +1013,19 @@
       <c r="R8" s="3">
         <v>21.148576584004559</v>
       </c>
-      <c r="U8">
+      <c r="T8">
         <v>12</v>
       </c>
-      <c r="V8" s="3" cm="1">
-        <f t="array" ref="V8">INDEX($B$2:$R$18,U7,U8)</f>
+      <c r="U8" s="3" cm="1">
+        <f t="array" ref="U8">INDEX($B$2:$R$18,T7,T8)</f>
         <v>25.177362938402862</v>
       </c>
-      <c r="W8" s="3">
+      <c r="V8" s="3">
         <f t="shared" si="0"/>
         <v>243.74966822180571</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1079,19 +1080,19 @@
       <c r="R9" s="3">
         <v>24.554270510313081</v>
       </c>
-      <c r="U9">
+      <c r="T9">
         <v>9</v>
       </c>
-      <c r="V9" s="3" cm="1">
-        <f t="array" ref="V9">INDEX($B$2:$R$18,U8,U9)</f>
+      <c r="U9" s="3" cm="1">
+        <f t="array" ref="U9">INDEX($B$2:$R$18,T8,T9)</f>
         <v>21.044476230910298</v>
       </c>
-      <c r="W9" s="3">
+      <c r="V9" s="3">
         <f t="shared" si="0"/>
         <v>264.79414445271601</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1146,19 +1147,19 @@
       <c r="R10" s="3">
         <v>24.824169101341901</v>
       </c>
-      <c r="U10">
+      <c r="T10">
         <v>7</v>
       </c>
-      <c r="V10" s="3" cm="1">
-        <f t="array" ref="V10">INDEX($B$2:$R$18,U9,U10)</f>
+      <c r="U10" s="3" cm="1">
+        <f t="array" ref="U10">INDEX($B$2:$R$18,T9,T10)</f>
         <v>3.732729912476823</v>
       </c>
-      <c r="W10" s="3">
+      <c r="V10" s="3">
         <f t="shared" si="0"/>
         <v>268.52687436519284</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1213,19 +1214,19 @@
       <c r="R11" s="3">
         <v>27.5273473722171</v>
       </c>
-      <c r="U11">
+      <c r="T11">
         <v>14</v>
       </c>
-      <c r="V11" s="3" cm="1">
-        <f t="array" ref="V11">INDEX($B$2:$R$18,U10,U11)</f>
+      <c r="U11" s="3" cm="1">
+        <f t="array" ref="U11">INDEX($B$2:$R$18,T10,T11)</f>
         <v>1.144180287829643</v>
       </c>
-      <c r="W11" s="3">
+      <c r="V11" s="3">
         <f t="shared" si="0"/>
         <v>269.67105465302251</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1280,19 +1281,19 @@
       <c r="R12" s="3">
         <v>61.346743461333631</v>
       </c>
-      <c r="U12">
+      <c r="T12">
         <v>8</v>
       </c>
-      <c r="V12" s="3" cm="1">
-        <f t="array" ref="V12">INDEX($B$2:$R$18,U11,U12)</f>
+      <c r="U12" s="3" cm="1">
+        <f t="array" ref="U12">INDEX($B$2:$R$18,T11,T12)</f>
         <v>4.063215713761525</v>
       </c>
-      <c r="W12" s="3">
+      <c r="V12" s="3">
         <f t="shared" si="0"/>
         <v>273.73427036678402</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1347,19 +1348,19 @@
       <c r="R13" s="3">
         <v>33.638968703072557</v>
       </c>
-      <c r="U13">
+      <c r="T13">
         <v>10</v>
       </c>
-      <c r="V13" s="3" cm="1">
-        <f t="array" ref="V13">INDEX($B$2:$R$18,U12,U13)</f>
+      <c r="U13" s="3" cm="1">
+        <f t="array" ref="U13">INDEX($B$2:$R$18,T12,T13)</f>
         <v>2.9774603740952892</v>
       </c>
-      <c r="W13" s="3">
+      <c r="V13" s="3">
         <f t="shared" si="0"/>
         <v>276.71173074087932</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1414,19 +1415,19 @@
       <c r="R14" s="3">
         <v>109.87012344508361</v>
       </c>
-      <c r="U14">
+      <c r="T14">
         <v>6</v>
       </c>
-      <c r="V14" s="3" cm="1">
-        <f t="array" ref="V14">INDEX($B$2:$R$18,U13,U14)</f>
+      <c r="U14" s="3" cm="1">
+        <f t="array" ref="U14">INDEX($B$2:$R$18,T13,T14)</f>
         <v>4.5913416813308841</v>
       </c>
-      <c r="W14" s="3">
+      <c r="V14" s="3">
         <f t="shared" si="0"/>
         <v>281.30307242221022</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1481,19 +1482,19 @@
       <c r="R15" s="3">
         <v>20.748227182829702</v>
       </c>
-      <c r="U15">
+      <c r="T15">
         <v>15</v>
       </c>
-      <c r="V15" s="3" cm="1">
-        <f t="array" ref="V15">INDEX($B$2:$R$18,U14,U15)</f>
+      <c r="U15" s="3" cm="1">
+        <f t="array" ref="U15">INDEX($B$2:$R$18,T14,T15)</f>
         <v>40.158273042387648</v>
       </c>
-      <c r="W15" s="3">
+      <c r="V15" s="3">
         <f t="shared" si="0"/>
         <v>321.46134546459785</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1548,19 +1549,19 @@
       <c r="R16" s="3">
         <v>70.833015114717185</v>
       </c>
-      <c r="U16">
+      <c r="T16">
         <v>16</v>
       </c>
-      <c r="V16" s="3" cm="1">
-        <f t="array" ref="V16">INDEX($B$2:$R$18,U15,U16)</f>
+      <c r="U16" s="3" cm="1">
+        <f t="array" ref="U16">INDEX($B$2:$R$18,T15,T16)</f>
         <v>63.800815332629902</v>
       </c>
-      <c r="W16" s="3">
+      <c r="V16" s="3">
         <f t="shared" si="0"/>
         <v>385.26216079722775</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1615,19 +1616,19 @@
       <c r="R17" s="3">
         <v>130.51756019434561</v>
       </c>
-      <c r="U17">
+      <c r="T17">
         <v>5</v>
       </c>
-      <c r="V17" s="3" cm="1">
-        <f t="array" ref="V17">INDEX($B$2:$R$18,U16,U17)</f>
+      <c r="U17" s="3" cm="1">
+        <f t="array" ref="U17">INDEX($B$2:$R$18,T16,T17)</f>
         <v>37.635555046402388</v>
       </c>
-      <c r="W17" s="3">
+      <c r="V17" s="3">
         <f t="shared" si="0"/>
         <v>422.89771584363012</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1682,31 +1683,1262 @@
       <c r="R18" s="4">
         <v>0</v>
       </c>
-      <c r="U18">
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="V18" s="3" cm="1">
-        <f t="array" ref="V18">INDEX($B$2:$R$18,U17,U18)</f>
+      <c r="U18" s="3" cm="1">
+        <f t="array" ref="U18">INDEX($B$2:$R$18,T17,T18)</f>
         <v>9.5884668481258029</v>
       </c>
-      <c r="W18" s="3">
+      <c r="V18" s="5">
         <f t="shared" si="0"/>
         <v>432.48618269175591</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V19" s="5">
-        <f>SUM(V3:V18)</f>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U19" s="5">
+        <f>SUM(U3:U18)</f>
         <v>432.48618269175591</v>
       </c>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D379ED13-140B-4E27-BB03-5BEC413D5F4A}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>137.73604282442409</v>
+      </c>
+      <c r="D2" s="3">
+        <v>88.938009293324328</v>
+      </c>
+      <c r="E2" s="3">
+        <v>70.174382236732797</v>
+      </c>
+      <c r="F2" s="3">
+        <v>129.71285552623829</v>
+      </c>
+      <c r="G2" s="3">
+        <v>79.52999685233388</v>
+      </c>
+      <c r="H2" s="3">
+        <v>77.006880795304554</v>
+      </c>
+      <c r="I2" s="3">
+        <v>79.994056511583992</v>
+      </c>
+      <c r="J2" s="3">
+        <v>76.538292932696834</v>
+      </c>
+      <c r="K2" s="3">
+        <v>80.784607953370141</v>
+      </c>
+      <c r="L2" s="3">
+        <v>72.003788044667758</v>
+      </c>
+      <c r="M2" s="3">
+        <v>55.735474414007719</v>
+      </c>
+      <c r="N2" s="3">
+        <v>98.540184666502284</v>
+      </c>
+      <c r="O2" s="3">
+        <v>78.051655703419854</v>
+      </c>
+      <c r="P2" s="3">
+        <v>105.7128900842894</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>135.3417607687617</v>
+      </c>
+      <c r="R2" s="3">
+        <v>79.038058320391542</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>137.73604282442409</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>201.40975813477229</v>
+      </c>
+      <c r="E3" s="3">
+        <v>105.7954874416627</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.5884668481258029</v>
+      </c>
+      <c r="G3" s="3">
+        <v>77.201799437191781</v>
+      </c>
+      <c r="H3" s="3">
+        <v>87.344636445498963</v>
+      </c>
+      <c r="I3" s="3">
+        <v>83.312943885532107</v>
+      </c>
+      <c r="J3" s="3">
+        <v>84.213702706884263</v>
+      </c>
+      <c r="K3" s="3">
+        <v>80.388357956224155</v>
+      </c>
+      <c r="L3" s="3">
+        <v>164.73294671143611</v>
+      </c>
+      <c r="M3" s="3">
+        <v>93.662026105958546</v>
+      </c>
+      <c r="N3" s="3">
+        <v>211.7735648856858</v>
+      </c>
+      <c r="O3" s="3">
+        <v>87.36227602396086</v>
+      </c>
+      <c r="P3" s="3">
+        <v>37.125396567414818</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>43.7138909202313</v>
+      </c>
+      <c r="R3" s="3">
+        <v>107.3094045510677</v>
+      </c>
+      <c r="T3" s="2">
+        <v>13</v>
+      </c>
+      <c r="U3" s="3" cm="1">
+        <f t="array" ref="U3">INDEX($B$2:$R$18,T2,T3)</f>
+        <v>98.540184666502284</v>
+      </c>
+      <c r="V3" s="3">
+        <f>U3+V2</f>
+        <v>98.540184666502284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>88.938009293324328</v>
+      </c>
+      <c r="C4" s="3">
+        <v>201.40975813477229</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>98.038108088065968</v>
+      </c>
+      <c r="F4" s="3">
+        <v>195.86921076550729</v>
+      </c>
+      <c r="G4" s="3">
+        <v>125.26872923870719</v>
+      </c>
+      <c r="H4" s="3">
+        <v>116.07440375522479</v>
+      </c>
+      <c r="I4" s="3">
+        <v>120.353999629393</v>
+      </c>
+      <c r="J4" s="3">
+        <v>118.5760046025696</v>
+      </c>
+      <c r="K4" s="3">
+        <v>122.99118208580001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>38.940404337419132</v>
+      </c>
+      <c r="M4" s="3">
+        <v>108.2195178802737</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10.49760224799414</v>
+      </c>
+      <c r="O4" s="3">
+        <v>116.3906678041413</v>
+      </c>
+      <c r="P4" s="3">
+        <v>164.43976286656451</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>212.81261628772151</v>
+      </c>
+      <c r="R4" s="3">
+        <v>100.18334971507289</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4" s="3" cm="1">
+        <f t="array" ref="U4">INDEX($B$2:$R$18,T3,T4)</f>
+        <v>10.49760224799414</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" ref="V4:V18" si="0">U4+V3</f>
+        <v>109.03778691449642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>70.174382236732797</v>
+      </c>
+      <c r="C5" s="3">
+        <v>105.7954874416627</v>
+      </c>
+      <c r="D5" s="3">
+        <v>98.038108088065968</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>101.6614933421907</v>
+      </c>
+      <c r="G5" s="3">
+        <v>28.639967478869458</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18.49812419810636</v>
+      </c>
+      <c r="I5" s="3">
+        <v>22.66747142437378</v>
+      </c>
+      <c r="J5" s="3">
+        <v>21.602204813983509</v>
+      </c>
+      <c r="K5" s="3">
+        <v>25.502973025944591</v>
+      </c>
+      <c r="L5" s="3">
+        <v>59.800781101391628</v>
+      </c>
+      <c r="M5" s="3">
+        <v>25.177362938402862</v>
+      </c>
+      <c r="N5" s="3">
+        <v>108.04017168785219</v>
+      </c>
+      <c r="O5" s="3">
+        <v>18.612999464194559</v>
+      </c>
+      <c r="P5" s="3">
+        <v>68.794080857093917</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>126.15987833034519</v>
+      </c>
+      <c r="R5" s="3">
+        <v>9.2661972053704051</v>
+      </c>
+      <c r="T5">
+        <v>11</v>
+      </c>
+      <c r="U5" s="3" cm="1">
+        <f t="array" ref="U5">INDEX($B$2:$R$18,T4,T5)</f>
+        <v>38.940404337419132</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="0"/>
+        <v>147.97819125191555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>129.71285552623829</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.5884668481258029</v>
+      </c>
+      <c r="D6" s="3">
+        <v>195.86921076550729</v>
+      </c>
+      <c r="E6" s="3">
+        <v>101.6614933421907</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>73.045786380771872</v>
+      </c>
+      <c r="H6" s="3">
+        <v>83.411575092696836</v>
+      </c>
+      <c r="I6" s="3">
+        <v>79.555132134783733</v>
+      </c>
+      <c r="J6" s="3">
+        <v>80.086630412397668</v>
+      </c>
+      <c r="K6" s="3">
+        <v>76.586823436072592</v>
+      </c>
+      <c r="L6" s="3">
+        <v>159.8146029399397</v>
+      </c>
+      <c r="M6" s="3">
+        <v>87.720481438864454</v>
+      </c>
+      <c r="N6" s="3">
+        <v>206.28966171570099</v>
+      </c>
+      <c r="O6" s="3">
+        <v>83.546474167191448</v>
+      </c>
+      <c r="P6" s="3">
+        <v>33.110669079520193</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>37.635555046402388</v>
+      </c>
+      <c r="R6" s="3">
+        <v>103.94003120872171</v>
+      </c>
+      <c r="T6">
+        <v>17</v>
+      </c>
+      <c r="U6" s="3" cm="1">
+        <f t="array" ref="U6">INDEX($B$2:$R$18,T5,T6)</f>
+        <v>61.346743461333631</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="0"/>
+        <v>209.32493471324918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>79.52999685233388</v>
+      </c>
+      <c r="C7" s="3">
+        <v>77.201799437191781</v>
+      </c>
+      <c r="D7" s="3">
+        <v>125.26872923870719</v>
+      </c>
+      <c r="E7" s="3">
+        <v>28.639967478869458</v>
+      </c>
+      <c r="F7" s="3">
+        <v>73.045786380771872</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10.47269264264734</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7.256227457035525</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7.0419547908425431</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.5913416813308841</v>
+      </c>
+      <c r="L7" s="3">
+        <v>87.781082772792786</v>
+      </c>
+      <c r="M7" s="3">
+        <v>23.895964546119409</v>
+      </c>
+      <c r="N7" s="3">
+        <v>135.47854579648671</v>
+      </c>
+      <c r="O7" s="3">
+        <v>10.807515224442261</v>
+      </c>
+      <c r="P7" s="3">
+        <v>40.158273042387648</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>99.032571266635216</v>
+      </c>
+      <c r="R7" s="3">
+        <v>31.554803121949909</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7" s="3" cm="1">
+        <f t="array" ref="U7">INDEX($B$2:$R$18,T6,T7)</f>
+        <v>9.2661972053704051</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="0"/>
+        <v>218.5911319186196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>77.006880795304554</v>
+      </c>
+      <c r="C8" s="3">
+        <v>87.344636445498963</v>
+      </c>
+      <c r="D8" s="3">
+        <v>116.07440375522479</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18.49812419810636</v>
+      </c>
+      <c r="F8" s="3">
+        <v>83.411575092696836</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10.47269264264734</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.2854538342039374</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.732729912476823</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.0086356726304473</v>
+      </c>
+      <c r="L8" s="3">
+        <v>78.144838747018667</v>
+      </c>
+      <c r="M8" s="3">
+        <v>22.198433259847771</v>
+      </c>
+      <c r="N8" s="3">
+        <v>126.18080360257881</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1.144180287829643</v>
+      </c>
+      <c r="P8" s="3">
+        <v>50.423466665351427</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>109.3709042066869</v>
+      </c>
+      <c r="R8" s="3">
+        <v>21.148576584004559</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8" s="3" cm="1">
+        <f t="array" ref="U8">INDEX($B$2:$R$18,T7,T8)</f>
+        <v>18.49812419810636</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="0"/>
+        <v>237.08925611672595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79.994056511583992</v>
+      </c>
+      <c r="C9" s="3">
+        <v>83.312943885532107</v>
+      </c>
+      <c r="D9" s="3">
+        <v>120.353999629393</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22.66747142437378</v>
+      </c>
+      <c r="F9" s="3">
+        <v>79.555132134783733</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.256227457035525</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.2854538342039374</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.5281680751439279</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.9774603740952892</v>
+      </c>
+      <c r="L9" s="3">
+        <v>82.387152576672463</v>
+      </c>
+      <c r="M9" s="3">
+        <v>24.563393825356268</v>
+      </c>
+      <c r="N9" s="3">
+        <v>130.45406837109229</v>
+      </c>
+      <c r="O9" s="3">
+        <v>4.063215713761525</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.49913686723356</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>106.2048586072723</v>
+      </c>
+      <c r="R9" s="3">
+        <v>24.554270510313081</v>
+      </c>
+      <c r="T9">
+        <v>14</v>
+      </c>
+      <c r="U9" s="3" cm="1">
+        <f t="array" ref="U9">INDEX($B$2:$R$18,T8,T9)</f>
+        <v>1.144180287829643</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="0"/>
+        <v>238.23343640455559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>76.538292932696834</v>
+      </c>
+      <c r="C10" s="3">
+        <v>84.213702706884263</v>
+      </c>
+      <c r="D10" s="3">
+        <v>118.5760046025696</v>
+      </c>
+      <c r="E10" s="3">
+        <v>21.602204813983509</v>
+      </c>
+      <c r="F10" s="3">
+        <v>80.086630412397668</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7.0419547908425431</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.732729912476823</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.5281680751439279</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4.7342834702294034</v>
+      </c>
+      <c r="L10" s="3">
+        <v>80.902188384111057</v>
+      </c>
+      <c r="M10" s="3">
+        <v>21.044476230910298</v>
+      </c>
+      <c r="N10" s="3">
+        <v>128.7435333167671</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4.4578725472231344</v>
+      </c>
+      <c r="P10" s="3">
+        <v>47.192042777233461</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>105.69734355811821</v>
+      </c>
+      <c r="R10" s="3">
+        <v>24.824169101341901</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10" s="3" cm="1">
+        <f t="array" ref="U10">INDEX($B$2:$R$18,T9,T10)</f>
+        <v>6.9781288435663704</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="0"/>
+        <v>245.21156524812196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>80.784607953370141</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80.388357956224155</v>
+      </c>
+      <c r="D11" s="3">
+        <v>122.99118208580001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>25.502973025944591</v>
+      </c>
+      <c r="F11" s="3">
+        <v>76.586823436072592</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.5913416813308841</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7.0086356726304473</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.9774603740952892</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.7342834702294034</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>85.135732356163018</v>
+      </c>
+      <c r="M11" s="3">
+        <v>25.09287142386307</v>
+      </c>
+      <c r="N11" s="3">
+        <v>133.121249767656</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6.9781288435663704</v>
+      </c>
+      <c r="P11" s="3">
+        <v>43.540281960600282</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>103.29672808472939</v>
+      </c>
+      <c r="R11" s="3">
+        <v>27.5273473722171</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11" s="3" cm="1">
+        <f t="array" ref="U11">INDEX($B$2:$R$18,T10,T11)</f>
+        <v>4.5913416813308841</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="0"/>
+        <v>249.80290692945283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>72.003788044667758</v>
+      </c>
+      <c r="C12" s="3">
+        <v>164.73294671143611</v>
+      </c>
+      <c r="D12" s="3">
+        <v>38.940404337419132</v>
+      </c>
+      <c r="E12" s="3">
+        <v>59.800781101391628</v>
+      </c>
+      <c r="F12" s="3">
+        <v>159.8146029399397</v>
+      </c>
+      <c r="G12" s="3">
+        <v>87.781082772792786</v>
+      </c>
+      <c r="H12" s="3">
+        <v>78.144838747018667</v>
+      </c>
+      <c r="I12" s="3">
+        <v>82.387152576672463</v>
+      </c>
+      <c r="J12" s="3">
+        <v>80.902188384111057</v>
+      </c>
+      <c r="K12" s="3">
+        <v>85.135732356163018</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>73.324614016999902</v>
+      </c>
+      <c r="N12" s="3">
+        <v>48.523753075380327</v>
+      </c>
+      <c r="O12" s="3">
+        <v>78.360834080996355</v>
+      </c>
+      <c r="P12" s="3">
+        <v>127.6103605371792</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>179.89700349152881</v>
+      </c>
+      <c r="R12" s="3">
+        <v>61.346743461333631</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12" s="3" cm="1">
+        <f t="array" ref="U12">INDEX($B$2:$R$18,T11,T12)</f>
+        <v>7.0419547908425431</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="0"/>
+        <v>256.8448617202954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>55.735474414007719</v>
+      </c>
+      <c r="C13" s="3">
+        <v>93.662026105958546</v>
+      </c>
+      <c r="D13" s="3">
+        <v>108.2195178802737</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25.177362938402862</v>
+      </c>
+      <c r="F13" s="3">
+        <v>87.720481438864454</v>
+      </c>
+      <c r="G13" s="3">
+        <v>23.895964546119409</v>
+      </c>
+      <c r="H13" s="3">
+        <v>22.198433259847771</v>
+      </c>
+      <c r="I13" s="3">
+        <v>24.563393825356268</v>
+      </c>
+      <c r="J13" s="3">
+        <v>21.044476230910298</v>
+      </c>
+      <c r="K13" s="3">
+        <v>25.09287142386307</v>
+      </c>
+      <c r="L13" s="3">
+        <v>73.324614016999902</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>118.6690065696243</v>
+      </c>
+      <c r="O13" s="3">
+        <v>23.325515233499289</v>
+      </c>
+      <c r="P13" s="3">
+        <v>57.280453048039263</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>106.74379794415729</v>
+      </c>
+      <c r="R13" s="3">
+        <v>33.638968703072557</v>
+      </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13" s="3" cm="1">
+        <f t="array" ref="U13">INDEX($B$2:$R$18,T12,T13)</f>
+        <v>3.5281680751439279</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="0"/>
+        <v>260.37302979543932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>98.540184666502284</v>
+      </c>
+      <c r="C14" s="3">
+        <v>211.7735648856858</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10.49760224799414</v>
+      </c>
+      <c r="E14" s="3">
+        <v>108.04017168785219</v>
+      </c>
+      <c r="F14" s="3">
+        <v>206.28966171570099</v>
+      </c>
+      <c r="G14" s="3">
+        <v>135.47854579648671</v>
+      </c>
+      <c r="H14" s="3">
+        <v>126.18080360257881</v>
+      </c>
+      <c r="I14" s="3">
+        <v>130.45406837109229</v>
+      </c>
+      <c r="J14" s="3">
+        <v>128.7435333167671</v>
+      </c>
+      <c r="K14" s="3">
+        <v>133.121249767656</v>
+      </c>
+      <c r="L14" s="3">
+        <v>48.523753075380327</v>
+      </c>
+      <c r="M14" s="3">
+        <v>118.6690065696243</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>126.4707976300644</v>
+      </c>
+      <c r="P14" s="3">
+        <v>174.77328749799841</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>223.30209437016899</v>
+      </c>
+      <c r="R14" s="3">
+        <v>109.87012344508361</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14" s="3" cm="1">
+        <f t="array" ref="U14">INDEX($B$2:$R$18,T13,T14)</f>
+        <v>24.563393825356268</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="0"/>
+        <v>284.93642362079561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>78.051655703419854</v>
+      </c>
+      <c r="C15" s="3">
+        <v>87.36227602396086</v>
+      </c>
+      <c r="D15" s="3">
+        <v>116.3906678041413</v>
+      </c>
+      <c r="E15" s="3">
+        <v>18.612999464194559</v>
+      </c>
+      <c r="F15" s="3">
+        <v>83.546474167191448</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10.807515224442261</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.144180287829643</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.063215713761525</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.4578725472231344</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6.9781288435663704</v>
+      </c>
+      <c r="L15" s="3">
+        <v>78.360834080996355</v>
+      </c>
+      <c r="M15" s="3">
+        <v>23.325515233499289</v>
+      </c>
+      <c r="N15" s="3">
+        <v>126.4707976300644</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>50.513512949423557</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>109.8190597071234</v>
+      </c>
+      <c r="R15" s="3">
+        <v>20.748227182829702</v>
+      </c>
+      <c r="T15">
+        <v>15</v>
+      </c>
+      <c r="U15" s="3" cm="1">
+        <f t="array" ref="U15">INDEX($B$2:$R$18,T14,T15)</f>
+        <v>57.280453048039263</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="0"/>
+        <v>342.21687666883486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>105.7128900842894</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37.125396567414818</v>
+      </c>
+      <c r="D16" s="3">
+        <v>164.43976286656451</v>
+      </c>
+      <c r="E16" s="3">
+        <v>68.794080857093917</v>
+      </c>
+      <c r="F16" s="3">
+        <v>33.110669079520193</v>
+      </c>
+      <c r="G16" s="3">
+        <v>40.158273042387648</v>
+      </c>
+      <c r="H16" s="3">
+        <v>50.423466665351427</v>
+      </c>
+      <c r="I16" s="3">
+        <v>46.49913686723356</v>
+      </c>
+      <c r="J16" s="3">
+        <v>47.192042777233461</v>
+      </c>
+      <c r="K16" s="3">
+        <v>43.540281960600282</v>
+      </c>
+      <c r="L16" s="3">
+        <v>127.6103605371792</v>
+      </c>
+      <c r="M16" s="3">
+        <v>57.280453048039263</v>
+      </c>
+      <c r="N16" s="3">
+        <v>174.77328749799841</v>
+      </c>
+      <c r="O16" s="3">
+        <v>50.513512949423557</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>63.800815332629902</v>
+      </c>
+      <c r="R16" s="3">
+        <v>70.833015114717185</v>
+      </c>
+      <c r="T16">
+        <v>16</v>
+      </c>
+      <c r="U16" s="3" cm="1">
+        <f t="array" ref="U16">INDEX($B$2:$R$18,T15,T16)</f>
+        <v>63.800815332629902</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="0"/>
+        <v>406.01769200146475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>135.3417607687617</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43.7138909202313</v>
+      </c>
+      <c r="D17" s="3">
+        <v>212.81261628772151</v>
+      </c>
+      <c r="E17" s="3">
+        <v>126.15987833034519</v>
+      </c>
+      <c r="F17" s="3">
+        <v>37.635555046402388</v>
+      </c>
+      <c r="G17" s="3">
+        <v>99.032571266635216</v>
+      </c>
+      <c r="H17" s="3">
+        <v>109.3709042066869</v>
+      </c>
+      <c r="I17" s="3">
+        <v>106.2048586072723</v>
+      </c>
+      <c r="J17" s="3">
+        <v>105.69734355811821</v>
+      </c>
+      <c r="K17" s="3">
+        <v>103.29672808472939</v>
+      </c>
+      <c r="L17" s="3">
+        <v>179.89700349152881</v>
+      </c>
+      <c r="M17" s="3">
+        <v>106.74379794415729</v>
+      </c>
+      <c r="N17" s="3">
+        <v>223.30209437016899</v>
+      </c>
+      <c r="O17" s="3">
+        <v>109.8190597071234</v>
+      </c>
+      <c r="P17" s="3">
+        <v>63.800815332629902</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>130.51756019434561</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3" cm="1">
+        <f t="array" ref="U17">INDEX($B$2:$R$18,T16,T17)</f>
+        <v>37.635555046402388</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="0"/>
+        <v>443.65324704786713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>79.038058320391542</v>
+      </c>
+      <c r="C18" s="3">
+        <v>107.3094045510677</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100.18334971507289</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9.2661972053704051</v>
+      </c>
+      <c r="F18" s="3">
+        <v>103.94003120872171</v>
+      </c>
+      <c r="G18" s="3">
+        <v>31.554803121949909</v>
+      </c>
+      <c r="H18" s="3">
+        <v>21.148576584004559</v>
+      </c>
+      <c r="I18" s="3">
+        <v>24.554270510313081</v>
+      </c>
+      <c r="J18" s="3">
+        <v>24.824169101341901</v>
+      </c>
+      <c r="K18" s="3">
+        <v>27.5273473722171</v>
+      </c>
+      <c r="L18" s="3">
+        <v>61.346743461333631</v>
+      </c>
+      <c r="M18" s="3">
+        <v>33.638968703072557</v>
+      </c>
+      <c r="N18" s="3">
+        <v>109.87012344508361</v>
+      </c>
+      <c r="O18" s="3">
+        <v>20.748227182829702</v>
+      </c>
+      <c r="P18" s="3">
+        <v>70.833015114717185</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>130.51756019434561</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18" s="3" cm="1">
+        <f t="array" ref="U18">INDEX($B$2:$R$18,T17,T18)</f>
+        <v>9.5884668481258029</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="0"/>
+        <v>453.24171389599292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U19" s="5">
+        <f>SUM(U3:U18)</f>
+        <v>453.24171389599292</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>